--- a/biology/Zoologie/Fimbriidae/Fimbriidae.xlsx
+++ b/biology/Zoologie/Fimbriidae/Fimbriidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Fimbriidae est une famille de mollusques bivalves. Des études semblent démontrer que cette famille n'a pas lieu d'être distinguée de la famille des Lucinidae[1].
-Selon World Register of Marine Species                               (29 octobre 2019)[2], le taxon a le rang de sous-famille, sous le nom de Fimbriinae Nicol, 1950, de la famille des Lucinidae. Le site y attribue les genres suivants :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Fimbriidae est une famille de mollusques bivalves. Des études semblent démontrer que cette famille n'a pas lieu d'être distinguée de la famille des Lucinidae.
+Selon World Register of Marine Species                               (29 octobre 2019), le taxon a le rang de sous-famille, sous le nom de Fimbriinae Nicol, 1950, de la famille des Lucinidae. Le site y attribue les genres suivants :
 Cerkesia Monari, 2003 †
 Cyclopellatia Cossmann, 1907 †
 Fimbria Megerle von Mühlfeld, 1811
